--- a/wenjian/2017年年度总结模板.xlsx
+++ b/wenjian/2017年年度总结模板.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18730"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\GitHub\test\wenjian\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="30" windowWidth="19440" windowHeight="7770"/>
   </bookViews>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>岗 位：</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -48,10 +53,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>本年度工作履历</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>认为本项目实施过程中存在的问题及改进建议</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -73,14 +74,53 @@
   </si>
   <si>
     <t>2018年个人工作规划及目标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王亚飞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试工程师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广发银行资管系统咨询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017年2月-至今</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对数据处理高度敏感，通过简便方法解决重复性工作，有效提高工作效率；
+办公软件操作熟练；
+熟悉新系统相关测试流程；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">资管业务知识欠缺，解决方法：与资管系统结合学习，边学边操作，有疑问及时与有经验同事沟通；
+ </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资管系统基础数据维护；
+资管系统拆账及原始交易数据处理、录入；
+资管系统日常测试；
+新资管系统测试；
+完成行方安排的其他临时性工作；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回顾2017年这一年的工作，既有收获又有不足，自2017年2月入职以来，在同事的帮助下，积极学习资管业务知识，掌握资管系统，完成行方安排的工作，完成了资管系统拆账交易、原始资产交易的录入，完成资管基础数据的录入，如净值型资产报价的维护、货币基金万份收益的维护、公募基金报价维护；汇率维护，配合行方完成监管检查，完成资管系统数据清理，完成资管系统历史交易调整；新系统上线后，积极配合公司进行系统测试；日常工作认真，按时完成行方安排的工作；认真分析日常数据处理中的不足之处，过简便方法解决重复性工作，有效提高工作效率；</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -413,6 +453,9 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -431,6 +474,21 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -439,24 +497,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -477,6 +517,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -525,7 +568,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -558,9 +601,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -593,6 +653,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -771,11 +848,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:H14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.875" style="2" customWidth="1"/>
     <col min="2" max="2" width="5.25" style="2" customWidth="1"/>
@@ -788,49 +865,53 @@
     <col min="9" max="16384" width="10.5" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="25.5" customHeight="1">
-      <c r="B1" s="27" t="s">
+    <row r="1" spans="2:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-    </row>
-    <row r="2" spans="2:8" ht="25.5" customHeight="1">
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-    </row>
-    <row r="3" spans="2:8" ht="25.5" customHeight="1">
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-    </row>
-    <row r="4" spans="2:8" s="3" customFormat="1" ht="21.75" customHeight="1" thickBot="1">
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+    </row>
+    <row r="2" spans="2:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+    </row>
+    <row r="3" spans="2:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+    </row>
+    <row r="4" spans="2:8" s="3" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
+      <c r="C4" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
       <c r="F4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-    </row>
-    <row r="5" spans="2:8" s="3" customFormat="1" ht="21.75" customHeight="1" thickBot="1">
+      <c r="G4" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="24"/>
+    </row>
+    <row r="5" spans="2:8" s="3" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="5"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -839,18 +920,16 @@
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="2:8" s="3" customFormat="1" ht="30" customHeight="1">
-      <c r="B6" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="24"/>
-    </row>
-    <row r="7" spans="2:8" s="4" customFormat="1" ht="16.5" customHeight="1">
+    <row r="6" spans="2:8" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="20"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="22"/>
+    </row>
+    <row r="7" spans="2:8" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="8" t="s">
         <v>1</v>
       </c>
@@ -867,24 +946,36 @@
         <v>7</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" s="4" customFormat="1" ht="114.75" customHeight="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" s="4" customFormat="1" ht="114.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="10">
         <v>1</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="12"/>
-    </row>
-    <row r="9" spans="2:8" s="4" customFormat="1" ht="114.75" customHeight="1">
+      <c r="C8" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" s="4" customFormat="1" ht="114.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="10">
         <v>2</v>
       </c>
@@ -895,7 +986,7 @@
       <c r="G9" s="11"/>
       <c r="H9" s="12"/>
     </row>
-    <row r="10" spans="2:8" s="4" customFormat="1" ht="114.75" customHeight="1">
+    <row r="10" spans="2:8" s="4" customFormat="1" ht="114.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="10">
         <v>3</v>
       </c>
@@ -906,7 +997,7 @@
       <c r="G10" s="11"/>
       <c r="H10" s="12"/>
     </row>
-    <row r="11" spans="2:8" s="4" customFormat="1" ht="114.75" customHeight="1">
+    <row r="11" spans="2:8" s="4" customFormat="1" ht="114.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="10">
         <v>4</v>
       </c>
@@ -917,7 +1008,7 @@
       <c r="G11" s="11"/>
       <c r="H11" s="12"/>
     </row>
-    <row r="12" spans="2:8" s="4" customFormat="1" ht="114.75" customHeight="1">
+    <row r="12" spans="2:8" s="4" customFormat="1" ht="114.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="10">
         <v>5</v>
       </c>
@@ -928,85 +1019,87 @@
       <c r="G12" s="11"/>
       <c r="H12" s="12"/>
     </row>
-    <row r="13" spans="2:8" s="4" customFormat="1" ht="30" customHeight="1">
-      <c r="B13" s="13" t="s">
+    <row r="13" spans="2:8" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="16"/>
+    </row>
+    <row r="14" spans="2:8" s="4" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="19"/>
+    </row>
+    <row r="15" spans="2:8" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="15"/>
-    </row>
-    <row r="14" spans="2:8" s="4" customFormat="1" ht="92.25" customHeight="1">
-      <c r="B14" s="16"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="18"/>
-    </row>
-    <row r="15" spans="2:8" s="4" customFormat="1" ht="26.25" customHeight="1">
-      <c r="B15" s="16" t="s">
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="19"/>
+    </row>
+    <row r="16" spans="2:8" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="18"/>
-    </row>
-    <row r="16" spans="2:8" s="4" customFormat="1" ht="30" customHeight="1">
-      <c r="B16" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="15"/>
-    </row>
-    <row r="17" spans="2:8" s="4" customFormat="1" ht="89.25" customHeight="1">
-      <c r="B17" s="16"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="18"/>
-    </row>
-    <row r="18" spans="2:8" s="4" customFormat="1" ht="30" customHeight="1">
-      <c r="B18" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="15"/>
-    </row>
-    <row r="19" spans="2:8" s="4" customFormat="1" ht="93" customHeight="1" thickBot="1">
-      <c r="B19" s="19"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="21"/>
-    </row>
-    <row r="20" spans="2:8" s="3" customFormat="1"/>
-    <row r="21" spans="2:8" s="3" customFormat="1"/>
-    <row r="22" spans="2:8" s="3" customFormat="1"/>
-    <row r="23" spans="2:8" s="3" customFormat="1"/>
-    <row r="24" spans="2:8" s="3" customFormat="1"/>
-    <row r="25" spans="2:8" s="3" customFormat="1"/>
-    <row r="26" spans="2:8" s="3" customFormat="1"/>
-    <row r="27" spans="2:8" s="3" customFormat="1">
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="16"/>
+    </row>
+    <row r="17" spans="2:8" s="4" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="17"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="19"/>
+    </row>
+    <row r="18" spans="2:8" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="16"/>
+    </row>
+    <row r="19" spans="2:8" s="4" customFormat="1" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="25"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="27"/>
+    </row>
+    <row r="20" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="21" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="22" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="23" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="24" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="25" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="26" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="27" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1017,17 +1110,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="B15:H15"/>
     <mergeCell ref="B1:H3"/>
     <mergeCell ref="B13:H13"/>
     <mergeCell ref="B14:H14"/>
     <mergeCell ref="B6:H6"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="G4:H4"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="B18:H18"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="B19:H19"/>
-    <mergeCell ref="B15:H15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/wenjian/2017年年度总结模板.xlsx
+++ b/wenjian/2017年年度总结模板.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\GitHub\test\wenjian\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\local\test\wenjian\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="员工履历表" sheetId="5" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -93,26 +93,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>对数据处理高度敏感，通过简便方法解决重复性工作，有效提高工作效率；
+    <t xml:space="preserve">对数据处理高度敏感，通过简便方法解决重复性工作，有效提高工作效率；
 办公软件操作熟练；
-熟悉新系统相关测试流程；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">资管业务知识欠缺，解决方法：与资管系统结合学习，边学边操作，有疑问及时与有经验同事沟通；
- </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资管系统基础数据维护；
-资管系统拆账及原始交易数据处理、录入；
-资管系统日常测试；
-新资管系统测试；
-完成行方安排的其他临时性工作；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回顾2017年这一年的工作，既有收获又有不足，自2017年2月入职以来，在同事的帮助下，积极学习资管业务知识，掌握资管系统，完成行方安排的工作，完成了资管系统拆账交易、原始资产交易的录入，完成资管基础数据的录入，如净值型资产报价的维护、货币基金万份收益的维护、公募基金报价维护；汇率维护，配合行方完成监管检查，完成资管系统数据清理，完成资管系统历史交易调整；新系统上线后，积极配合公司进行系统测试；日常工作认真，按时完成行方安排的工作；认真分析日常数据处理中的不足之处，过简便方法解决重复性工作，有效提高工作效率；</t>
+熟悉新系统相关测试流程；
+掌握了资管系统业务处理逻辑；
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、资管系统基础数据维护；
+2、资管系统拆账及原始交易数据处理、录入；
+3、资管系统日常测试；
+4、参与新资管系统需求分析，编写测试用例，执行测试用例，反馈缺陷；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、深入学习商业银行资管业务知识，提高业务处理能力；
+2、总结分析日常工作内容，有效提高工作效率；
+3、按照项目测试计划，执行新系统测试用例；
+4、本着实事求是的态度，更加认真、负责的完成工作；
+5、多多的学习，参加一些有益的培训，在实际工作中活学活用；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1、回顾一年来的工作有成绩也有不足，但更多的是收获；自2017年2月入职以来，在同事的帮助下，积极学习资管业务知识，掌握资管系统业务处理流程，完成行方安排的各项任务；先后完成了资管系统拆账交易、原始资产交易的录入，完成资管基础数据的维护，配合行方完成监管检查，完成资管系统数据清理，完成资管系统历史交易调整，新系统上线后，积极配合公司进行系统测试。认真分析日常数据处理中的不足之处，用简便方法解决重复性工作，有效提高工作效率；
+在理解需求的前提下编写测试用例，使得我掌握了多种测试用例编写方法，更让我对产品的需求有更加深入的理解，须知对需求是否理解透彻决定了能否有效、全面地对产品进行测试； 
+2.、要站在用户角度对系统进行测试。从一些项目中出现的未能及时发现的bug中，我认识到用户体验的重要性，现在能够越来越多的从这方面来执行测试；       
+3、对拿到手的项目有较清晰的思路，能够更加快速、准确地发现问题； 
+4、越来越规范的工作流程的让我们的工作有条不紊的进行，让我深刻认识到工作的规范性是多么的重要，并且从中学习如何从文档和流程上规范工作。  
+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -849,7 +858,7 @@
   <dimension ref="B1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="B19" sqref="B19:H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -859,7 +868,7 @@
     <col min="3" max="3" width="29" style="2" customWidth="1"/>
     <col min="4" max="4" width="12" style="2" customWidth="1"/>
     <col min="5" max="5" width="21.25" style="2" customWidth="1"/>
-    <col min="6" max="6" width="18.5" style="2" customWidth="1"/>
+    <col min="6" max="6" width="21.125" style="2" customWidth="1"/>
     <col min="7" max="7" width="36.5" style="2" customWidth="1"/>
     <col min="8" max="8" width="37" style="2" customWidth="1"/>
     <col min="9" max="16384" width="10.5" style="2"/>
@@ -966,14 +975,12 @@
         <v>15</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G8" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="12" t="s">
-        <v>19</v>
-      </c>
+      <c r="H8" s="12"/>
     </row>
     <row r="9" spans="2:8" s="4" customFormat="1" ht="114.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="10">
@@ -1063,8 +1070,10 @@
       <c r="G16" s="15"/>
       <c r="H16" s="16"/>
     </row>
-    <row r="17" spans="2:8" s="4" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="17"/>
+    <row r="17" spans="2:8" s="4" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="17" t="s">
+        <v>20</v>
+      </c>
       <c r="C17" s="18"/>
       <c r="D17" s="18"/>
       <c r="E17" s="18"/>
